--- a/ha-asset/01_design/92_テンプレート一覧.xlsx
+++ b/ha-asset/01_design/92_テンプレート一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1921C8-054B-4BDC-B4B6-168CCA2C49A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBE7FA4-411D-4B47-B138-A584210410C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="1035" windowWidth="22770" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="#n" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'#1'!$A$1:$BK$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'#1'!$A$1:$BK$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'#2'!$A$1:$BK$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'#3'!$A$1:$BK$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>&lt;li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="${url}accountrecovery/edit/${seq_user_id}?token=${token}"&gt;${url}accountrecovery/edit/${seq_user_id}?token=${token}&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;/li&gt;</t>
@@ -278,6 +275,45 @@
   </si>
   <si>
     <t>mail-template/</t>
+  </si>
+  <si>
+    <t>&lt;a href="${url}accountrecovery/edit/${seq_user_id}?token=${token}"&gt;${url}accountrecovery/edit/${seq_user_id}?token=${token}&lt;/a&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${token}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${url}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント情報.ユーザID</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント回復トークン.トークン</t>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康情報ダッシュボードの基底URL</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -854,7 +890,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1661,6 +1697,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1670,66 +1766,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3458,6 +3494,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P23:AB23"/>
+    <mergeCell ref="P24:AB24"/>
+    <mergeCell ref="P11:AB11"/>
+    <mergeCell ref="P12:AB12"/>
+    <mergeCell ref="P13:AB13"/>
+    <mergeCell ref="P14:AB14"/>
+    <mergeCell ref="P15:AB15"/>
+    <mergeCell ref="P16:AB16"/>
+    <mergeCell ref="P17:AB17"/>
+    <mergeCell ref="P18:AB18"/>
+    <mergeCell ref="P19:AB19"/>
+    <mergeCell ref="P20:AB20"/>
+    <mergeCell ref="P21:AB21"/>
+    <mergeCell ref="P22:AB22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
     <mergeCell ref="C8:O8"/>
     <mergeCell ref="C9:O9"/>
     <mergeCell ref="C10:O10"/>
@@ -3474,34 +3538,6 @@
     <mergeCell ref="C4:O4"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C11:O11"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="C14:O14"/>
-    <mergeCell ref="C15:O15"/>
-    <mergeCell ref="C16:O16"/>
-    <mergeCell ref="C17:O17"/>
-    <mergeCell ref="C18:O18"/>
-    <mergeCell ref="C19:O19"/>
-    <mergeCell ref="C20:O20"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="P23:AB23"/>
-    <mergeCell ref="P24:AB24"/>
-    <mergeCell ref="P11:AB11"/>
-    <mergeCell ref="P12:AB12"/>
-    <mergeCell ref="P13:AB13"/>
-    <mergeCell ref="P14:AB14"/>
-    <mergeCell ref="P15:AB15"/>
-    <mergeCell ref="P16:AB16"/>
-    <mergeCell ref="P17:AB17"/>
-    <mergeCell ref="P18:AB18"/>
-    <mergeCell ref="P19:AB19"/>
-    <mergeCell ref="P20:AB20"/>
-    <mergeCell ref="P21:AB21"/>
-    <mergeCell ref="P22:AB22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3522,9 +3558,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK39"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4138,7 +4174,7 @@
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="42" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -4148,7 +4184,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="40"/>
       <c r="J10" s="42" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -4203,6 +4239,2775 @@
       <c r="BI10" s="3"/>
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4"/>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+      <c r="BH28" s="4"/>
+      <c r="BI28" s="4"/>
+      <c r="BJ28" s="4"/>
+      <c r="BK28" s="4"/>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
+      <c r="BK29" s="4"/>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
+      <c r="BG30" s="4"/>
+      <c r="BH30" s="4"/>
+      <c r="BI30" s="4"/>
+      <c r="BJ30" s="4"/>
+      <c r="BK30" s="4"/>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="4"/>
+      <c r="BI31" s="4"/>
+      <c r="BJ31" s="4"/>
+      <c r="BK31" s="4"/>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+      <c r="BF32" s="4"/>
+      <c r="BG32" s="4"/>
+      <c r="BH32" s="4"/>
+      <c r="BI32" s="4"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
+    </row>
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
+      <c r="BK33" s="4"/>
+    </row>
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="9"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="4"/>
+    </row>
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="9"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+    </row>
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="9"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+    </row>
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+      <c r="BH37" s="4"/>
+      <c r="BI37" s="4"/>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="4"/>
+    </row>
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+      <c r="BH38" s="4"/>
+      <c r="BI38" s="4"/>
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="4"/>
+    </row>
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="9"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4"/>
+      <c r="BI39" s="4"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="4"/>
+    </row>
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="11"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="11"/>
+      <c r="AZ40" s="11"/>
+      <c r="BA40" s="11"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="4"/>
+    </row>
+    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+      <c r="BH41" s="4"/>
+      <c r="BI41" s="4"/>
+      <c r="BJ41" s="4"/>
+      <c r="BK41" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:AE11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:AE12"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J9:AE9"/>
+    <mergeCell ref="J10:AE10"/>
+    <mergeCell ref="Q3:AE3"/>
+    <mergeCell ref="Q4:AE4"/>
+    <mergeCell ref="Q5:AE5"/>
+    <mergeCell ref="Q6:AE6"/>
+    <mergeCell ref="J8:AE8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:BK18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="63" width="3.5703125" style="2" customWidth="1"/>
+    <col min="64" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
@@ -4270,60 +7075,60 @@
       <c r="BK11" s="3"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
       <c r="BC12" s="4"/>
       <c r="BD12" s="4"/>
       <c r="BE12" s="4"/>
@@ -4337,7 +7142,7 @@
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -4391,19 +7196,21 @@
       <c r="AZ13" s="6"/>
       <c r="BA13" s="6"/>
       <c r="BB13" s="7"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4456,21 +7263,19 @@
       <c r="AZ14" s="3"/>
       <c r="BA14" s="3"/>
       <c r="BB14" s="9"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="4"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4523,21 +7328,19 @@
       <c r="AZ15" s="3"/>
       <c r="BA15" s="3"/>
       <c r="BB15" s="9"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4590,84 +7393,84 @@
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
       <c r="BB16" s="9"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
-      <c r="BI16" s="4"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="4"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4719,1424 +7522,33 @@
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
       <c r="BA18" s="3"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
-    </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-    </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-    </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BI21" s="4"/>
-      <c r="BJ21" s="4"/>
-      <c r="BK21" s="4"/>
-    </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
-    </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-      <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
-    </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
-      <c r="BF25" s="4"/>
-      <c r="BG25" s="4"/>
-      <c r="BH25" s="4"/>
-      <c r="BI25" s="4"/>
-      <c r="BJ25" s="4"/>
-      <c r="BK25" s="4"/>
-    </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-      <c r="BF26" s="4"/>
-      <c r="BG26" s="4"/>
-      <c r="BH26" s="4"/>
-      <c r="BI26" s="4"/>
-      <c r="BJ26" s="4"/>
-      <c r="BK26" s="4"/>
-    </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
-      <c r="BF27" s="4"/>
-      <c r="BG27" s="4"/>
-      <c r="BH27" s="4"/>
-      <c r="BI27" s="4"/>
-      <c r="BJ27" s="4"/>
-      <c r="BK27" s="4"/>
-    </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="9"/>
-      <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
-      <c r="BE28" s="4"/>
-      <c r="BF28" s="4"/>
-      <c r="BG28" s="4"/>
-      <c r="BH28" s="4"/>
-      <c r="BI28" s="4"/>
-      <c r="BJ28" s="4"/>
-      <c r="BK28" s="4"/>
-    </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="9"/>
-      <c r="BC29" s="4"/>
-      <c r="BD29" s="4"/>
-      <c r="BE29" s="4"/>
-      <c r="BF29" s="4"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="4"/>
-      <c r="BI29" s="4"/>
-      <c r="BJ29" s="4"/>
-      <c r="BK29" s="4"/>
-    </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="3"/>
-      <c r="BA30" s="3"/>
-      <c r="BB30" s="9"/>
-      <c r="BC30" s="4"/>
-      <c r="BD30" s="4"/>
-      <c r="BE30" s="4"/>
-      <c r="BF30" s="4"/>
-      <c r="BG30" s="4"/>
-      <c r="BH30" s="4"/>
-      <c r="BI30" s="4"/>
-      <c r="BJ30" s="4"/>
-      <c r="BK30" s="4"/>
-    </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
-      <c r="AW31" s="3"/>
-      <c r="AX31" s="3"/>
-      <c r="AY31" s="3"/>
-      <c r="AZ31" s="3"/>
-      <c r="BA31" s="3"/>
-      <c r="BB31" s="9"/>
-      <c r="BC31" s="4"/>
-      <c r="BD31" s="4"/>
-      <c r="BE31" s="4"/>
-      <c r="BF31" s="4"/>
-      <c r="BG31" s="4"/>
-      <c r="BH31" s="4"/>
-      <c r="BI31" s="4"/>
-      <c r="BJ31" s="4"/>
-      <c r="BK31" s="4"/>
-    </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
-      <c r="AV32" s="3"/>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="3"/>
-      <c r="AY32" s="3"/>
-      <c r="AZ32" s="3"/>
-      <c r="BA32" s="3"/>
-      <c r="BB32" s="9"/>
-      <c r="BC32" s="4"/>
-      <c r="BD32" s="4"/>
-      <c r="BE32" s="4"/>
-      <c r="BF32" s="4"/>
-      <c r="BG32" s="4"/>
-      <c r="BH32" s="4"/>
-      <c r="BI32" s="4"/>
-      <c r="BJ32" s="4"/>
-      <c r="BK32" s="4"/>
-    </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="4"/>
-      <c r="BD33" s="4"/>
-      <c r="BE33" s="4"/>
-      <c r="BF33" s="4"/>
-      <c r="BG33" s="4"/>
-      <c r="BH33" s="4"/>
-      <c r="BI33" s="4"/>
-      <c r="BJ33" s="4"/>
-      <c r="BK33" s="4"/>
-    </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="9"/>
-      <c r="BC34" s="4"/>
-      <c r="BD34" s="4"/>
-      <c r="BE34" s="4"/>
-      <c r="BF34" s="4"/>
-      <c r="BG34" s="4"/>
-      <c r="BH34" s="4"/>
-      <c r="BI34" s="4"/>
-      <c r="BJ34" s="4"/>
-      <c r="BK34" s="4"/>
-    </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="9"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
-      <c r="BI35" s="4"/>
-      <c r="BJ35" s="4"/>
-      <c r="BK35" s="4"/>
-    </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
-      <c r="AW36" s="3"/>
-      <c r="AX36" s="3"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="9"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="4"/>
-      <c r="BF36" s="4"/>
-      <c r="BG36" s="4"/>
-      <c r="BH36" s="4"/>
-      <c r="BI36" s="4"/>
-      <c r="BJ36" s="4"/>
-      <c r="BK36" s="4"/>
-    </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
-      <c r="AQ37" s="3"/>
-      <c r="AR37" s="3"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
-      <c r="AW37" s="3"/>
-      <c r="AX37" s="3"/>
-      <c r="AY37" s="3"/>
-      <c r="AZ37" s="3"/>
-      <c r="BA37" s="3"/>
-      <c r="BB37" s="9"/>
-      <c r="BC37" s="4"/>
-      <c r="BD37" s="4"/>
-      <c r="BE37" s="4"/>
-      <c r="BF37" s="4"/>
-      <c r="BG37" s="4"/>
-      <c r="BH37" s="4"/>
-      <c r="BI37" s="4"/>
-      <c r="BJ37" s="4"/>
-      <c r="BK37" s="4"/>
-    </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="11"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="11"/>
-      <c r="AQ38" s="11"/>
-      <c r="AR38" s="11"/>
-      <c r="AS38" s="11"/>
-      <c r="AT38" s="11"/>
-      <c r="AU38" s="11"/>
-      <c r="AV38" s="11"/>
-      <c r="AW38" s="11"/>
-      <c r="AX38" s="11"/>
-      <c r="AY38" s="11"/>
-      <c r="AZ38" s="11"/>
-      <c r="BA38" s="11"/>
-      <c r="BB38" s="12"/>
-      <c r="BC38" s="4"/>
-      <c r="BD38" s="4"/>
-      <c r="BE38" s="4"/>
-      <c r="BF38" s="4"/>
-      <c r="BG38" s="4"/>
-      <c r="BH38" s="4"/>
-      <c r="BI38" s="4"/>
-      <c r="BJ38" s="4"/>
-      <c r="BK38" s="4"/>
-    </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
-      <c r="AU39" s="3"/>
-      <c r="AV39" s="3"/>
-      <c r="AW39" s="3"/>
-      <c r="AX39" s="3"/>
-      <c r="AY39" s="3"/>
-      <c r="AZ39" s="3"/>
-      <c r="BA39" s="3"/>
-      <c r="BB39" s="3"/>
-      <c r="BC39" s="4"/>
-      <c r="BD39" s="4"/>
-      <c r="BE39" s="4"/>
-      <c r="BF39" s="4"/>
-      <c r="BG39" s="4"/>
-      <c r="BH39" s="4"/>
-      <c r="BI39" s="4"/>
-      <c r="BJ39" s="4"/>
-      <c r="BK39" s="4"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="J9:AE9"/>
     <mergeCell ref="J10:AE10"/>
+    <mergeCell ref="J8:AE8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="Q3:AE3"/>
     <mergeCell ref="Q4:AE4"/>
     <mergeCell ref="Q5:AE5"/>
     <mergeCell ref="Q6:AE6"/>
-    <mergeCell ref="J8:AE8"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6144,14 +7556,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6161,7 +7575,7 @@
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6560,69 +7974,69 @@
       <c r="BK6" s="3"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -6637,7 +8051,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="40"/>
       <c r="J8" s="42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -6763,9 +8177,9 @@
       <c r="BK9" s="3"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="42" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -6775,7 +8189,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="40"/>
       <c r="J10" s="42" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -6798,71 +8212,75 @@
       <c r="AC10" s="39"/>
       <c r="AD10" s="39"/>
       <c r="AE10" s="40"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-      <c r="BF10" s="4"/>
-      <c r="BG10" s="4"/>
-      <c r="BH10" s="4"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
+      <c r="B11" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
@@ -6897,127 +8315,133 @@
       <c r="BK11" s="3"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="7"/>
+      <c r="B13" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
@@ -7030,38 +8454,40 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
+      <c r="B14" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="40"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
@@ -7084,7 +8510,7 @@
       <c r="AY14" s="3"/>
       <c r="AZ14" s="3"/>
       <c r="BA14" s="3"/>
-      <c r="BB14" s="9"/>
+      <c r="BB14" s="3"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
@@ -7097,36 +8523,40 @@
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
+      <c r="B15" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="40"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
@@ -7149,7 +8579,7 @@
       <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
       <c r="BA15" s="3"/>
-      <c r="BB15" s="9"/>
+      <c r="BB15" s="3"/>
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
@@ -7162,36 +8592,40 @@
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
+      <c r="B16" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="40"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -7214,7 +8648,7 @@
       <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
-      <c r="BB16" s="9"/>
+      <c r="BB16" s="3"/>
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
@@ -7227,59 +8661,59 @@
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="12"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
@@ -7355,1264 +8789,10 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
     </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="Q4:AE4"/>
-    <mergeCell ref="Q5:AE5"/>
-    <mergeCell ref="Q6:AE6"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J9:AE9"/>
-    <mergeCell ref="J10:AE10"/>
-    <mergeCell ref="J8:AE8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B8:I8"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:BK55"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="63" width="3.5703125" style="2" customWidth="1"/>
-    <col min="64" max="16384" width="14.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-    </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-    </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-    </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -8679,7 +8859,7 @@
     <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -8746,7 +8926,7 @@
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -8813,7 +8993,7 @@
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -8880,7 +9060,7 @@
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -8947,7 +9127,7 @@
     <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9014,7 +9194,7 @@
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -9081,7 +9261,7 @@
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -9148,7 +9328,7 @@
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -9215,7 +9395,7 @@
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -9282,7 +9462,7 @@
     <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -9349,7 +9529,7 @@
     <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -9416,7 +9596,7 @@
     <row r="31" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -9483,7 +9663,7 @@
     <row r="32" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -9550,7 +9730,7 @@
     <row r="33" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -9617,7 +9797,7 @@
     <row r="34" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -9684,7 +9864,7 @@
     <row r="35" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -9751,7 +9931,7 @@
     <row r="36" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -9818,7 +9998,7 @@
     <row r="37" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -9885,7 +10065,7 @@
     <row r="38" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -9952,7 +10132,7 @@
     <row r="39" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -10019,7 +10199,7 @@
     <row r="40" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10086,7 +10266,7 @@
     <row r="41" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -10153,7 +10333,7 @@
     <row r="42" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -10220,7 +10400,7 @@
     <row r="43" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -10287,7 +10467,7 @@
     <row r="44" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -10354,7 +10534,7 @@
     <row r="45" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -10421,7 +10601,7 @@
     <row r="46" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -10488,7 +10668,7 @@
     <row r="47" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -10555,7 +10735,7 @@
     <row r="48" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -10622,7 +10802,7 @@
     <row r="49" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -10689,7 +10869,7 @@
     <row r="50" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -10756,7 +10936,7 @@
     <row r="51" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -10823,7 +11003,7 @@
     <row r="52" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -10890,7 +11070,7 @@
     <row r="53" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -11086,20 +11266,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="Q4:AE4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="Q5:AE5"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J13:AE13"/>
-    <mergeCell ref="J14:AE14"/>
-    <mergeCell ref="J15:AE15"/>
-    <mergeCell ref="J16:AE16"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="J10:AE10"/>
     <mergeCell ref="J11:AE11"/>
@@ -11112,6 +11278,20 @@
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J13:AE13"/>
+    <mergeCell ref="J14:AE14"/>
+    <mergeCell ref="J15:AE15"/>
+    <mergeCell ref="J16:AE16"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="Q3:AE3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="Q4:AE4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="Q5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11138,7 +11318,7 @@
   <sheetData>
     <row r="1" spans="1:63" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11614,7 +11794,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="29"/>
       <c r="J8" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -13890,12 +14070,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J9:AE9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:AE10"/>
-    <mergeCell ref="J8:AE8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="Q6:AE6"/>
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="B3:P3"/>
@@ -13904,6 +14078,12 @@
     <mergeCell ref="Q4:AE4"/>
     <mergeCell ref="B5:P5"/>
     <mergeCell ref="Q5:AE5"/>
+    <mergeCell ref="J9:AE9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:AE10"/>
+    <mergeCell ref="J8:AE8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ha-asset/01_design/92_テンプレート一覧.xlsx
+++ b/ha-asset/01_design/92_テンプレート一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3B3DBF-803B-4C0C-A7E0-F69E97EB77B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB75F6-134E-43A6-B66D-C3543681F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="840" windowWidth="21930" windowHeight="17160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="525" windowWidth="24675" windowHeight="14625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>テンプレートキー</t>
   </si>
   <si>
-    <t>mail-template/account-recovery-template.txt</t>
-  </si>
-  <si>
     <t>置換キー</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>&lt;p&gt;本メールに心当たりが無い場合、破棄して下さい。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>mail-template/health-check-template.txt</t>
   </si>
   <si>
     <t>&lt;p&gt;健康管理サーバーのヘルスチェックに失敗しました&lt;/p&gt;</t>
@@ -332,6 +326,14 @@
     <rPh sb="6" eb="8">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mail-template/health-check-template.txt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mail-template/account-recovery-template.txt</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -642,14 +644,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -663,7 +665,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,9 +711,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -744,15 +743,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -761,17 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,21 +762,41 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1017,7 +1019,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:Z16"/>
+      <selection activeCell="F5" sqref="F5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1089,688 +1091,688 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="20"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="39"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="20"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="20"/>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>44150</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="41" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="34"/>
       <c r="AA4" s="20"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="20"/>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>44353</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="33">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="32">
         <f>F4+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36" t="s">
-        <v>78</v>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35" t="s">
+        <v>76</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="34"/>
       <c r="AA5" s="20"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="20"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="35"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="34"/>
       <c r="AA6" s="20"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="20"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="35"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="34"/>
       <c r="AA7" s="20"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="20"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="35"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="34"/>
       <c r="AA8" s="20"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="20"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="35"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="34"/>
       <c r="AA9" s="20"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="20"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="35"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="34"/>
       <c r="AA10" s="20"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="20"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="35"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="34"/>
       <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="20"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="35"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="34"/>
       <c r="AA12" s="20"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="20"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="35"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="34"/>
       <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="20"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="34"/>
       <c r="AA14" s="20"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="20"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="35"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="34"/>
       <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="20"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="35"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="34"/>
       <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="20"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="35"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="34"/>
       <c r="AA17" s="20"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="20"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="35"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="34"/>
       <c r="AA18" s="20"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="20"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="34"/>
       <c r="AA19" s="20"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="20"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="34"/>
       <c r="AA20" s="20"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="20"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="35"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="34"/>
       <c r="AA21" s="20"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="20"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="34"/>
       <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="20"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="34"/>
       <c r="AA23" s="20"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="20"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="35"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="34"/>
       <c r="AA24" s="20"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="20"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="35"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="34"/>
       <c r="AA25" s="20"/>
     </row>
     <row r="26" spans="1:27">
@@ -1833,12 +1835,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1848,60 +1898,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,7 +1920,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18:AB18"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2060,41 +2062,41 @@
       <c r="BJ2" s="16"/>
       <c r="BK2" s="16"/>
     </row>
-    <row r="3" spans="1:63" s="32" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="31" customFormat="1" ht="18.75">
       <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>79</v>
+      <c r="C3" s="59" t="s">
+        <v>77</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="44" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="64"/>
       <c r="AC3" s="30"/>
       <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
@@ -2136,34 +2138,34 @@
       <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>80</v>
+      <c r="C4" s="47" t="s">
+        <v>78</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
@@ -2206,34 +2208,34 @@
         <f t="shared" ref="B5:B24" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>81</v>
+      <c r="C5" s="47" t="s">
+        <v>79</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="34"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
@@ -2276,34 +2278,34 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="64" t="s">
-        <v>82</v>
+      <c r="C6" s="47" t="s">
+        <v>80</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="35"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="34"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
@@ -2346,32 +2348,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="35"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="34"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
@@ -2414,32 +2416,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="35"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="34"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16"/>
@@ -2482,32 +2484,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="35"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="34"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
@@ -2550,32 +2552,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="35"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="34"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
@@ -2618,32 +2620,32 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="35"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="34"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
@@ -2686,32 +2688,32 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="35"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="34"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
@@ -2754,32 +2756,32 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="35"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="34"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
@@ -2822,32 +2824,32 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="35"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="34"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
@@ -2890,32 +2892,32 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="35"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="34"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
@@ -2958,32 +2960,32 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="35"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="34"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
@@ -3026,32 +3028,32 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="35"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="34"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
@@ -3094,32 +3096,32 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="35"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="34"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
@@ -3162,32 +3164,32 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="35"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="34"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
@@ -3230,32 +3232,32 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="35"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="34"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
@@ -3298,32 +3300,32 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="35"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="34"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
@@ -3366,32 +3368,32 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="35"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="34"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
@@ -3434,32 +3436,32 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="35"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="34"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
@@ -3502,32 +3504,32 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="35"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
@@ -3631,34 +3633,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="P23:AB23"/>
-    <mergeCell ref="P24:AB24"/>
-    <mergeCell ref="P11:AB11"/>
-    <mergeCell ref="P12:AB12"/>
-    <mergeCell ref="P13:AB13"/>
-    <mergeCell ref="P14:AB14"/>
-    <mergeCell ref="P15:AB15"/>
-    <mergeCell ref="P16:AB16"/>
-    <mergeCell ref="P17:AB17"/>
-    <mergeCell ref="P18:AB18"/>
-    <mergeCell ref="P19:AB19"/>
-    <mergeCell ref="P20:AB20"/>
-    <mergeCell ref="P21:AB21"/>
-    <mergeCell ref="P22:AB22"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C11:O11"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="C14:O14"/>
-    <mergeCell ref="C15:O15"/>
-    <mergeCell ref="C16:O16"/>
-    <mergeCell ref="C17:O17"/>
-    <mergeCell ref="C18:O18"/>
-    <mergeCell ref="C19:O19"/>
-    <mergeCell ref="C20:O20"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:O22"/>
     <mergeCell ref="C8:O8"/>
     <mergeCell ref="C9:O9"/>
     <mergeCell ref="C10:O10"/>
@@ -3675,6 +3649,34 @@
     <mergeCell ref="C4:O4"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="P23:AB23"/>
+    <mergeCell ref="P24:AB24"/>
+    <mergeCell ref="P11:AB11"/>
+    <mergeCell ref="P12:AB12"/>
+    <mergeCell ref="P13:AB13"/>
+    <mergeCell ref="P14:AB14"/>
+    <mergeCell ref="P15:AB15"/>
+    <mergeCell ref="P16:AB16"/>
+    <mergeCell ref="P17:AB17"/>
+    <mergeCell ref="P18:AB18"/>
+    <mergeCell ref="P19:AB19"/>
+    <mergeCell ref="P20:AB20"/>
+    <mergeCell ref="P21:AB21"/>
+    <mergeCell ref="P22:AB22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3697,7 +3699,7 @@
   </sheetPr>
   <dimension ref="A1:BK36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
@@ -3840,40 +3842,40 @@
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="16"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58" t="s">
-        <v>12</v>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49" t="s">
+        <v>82</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="57"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="51"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -3909,40 +3911,40 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="16"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="57"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="51"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -3978,40 +3980,40 @@
     </row>
     <row r="5" spans="1:63">
       <c r="A5" s="16"/>
-      <c r="B5" s="58" t="s">
-        <v>74</v>
+      <c r="B5" s="49" t="s">
+        <v>72</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="s">
-        <v>77</v>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49" t="s">
+        <v>75</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="51"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -4047,40 +4049,40 @@
     </row>
     <row r="6" spans="1:63">
       <c r="A6" s="16"/>
-      <c r="B6" s="58" t="s">
-        <v>33</v>
+      <c r="B6" s="49" t="s">
+        <v>31</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="s">
-        <v>75</v>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="49" t="s">
+        <v>73</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="57"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="51"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -4116,40 +4118,40 @@
     </row>
     <row r="7" spans="1:63">
       <c r="A7" s="16"/>
-      <c r="B7" s="58" t="s">
-        <v>73</v>
+      <c r="B7" s="49" t="s">
+        <v>71</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="s">
-        <v>76</v>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="49" t="s">
+        <v>74</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="57"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="51"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -4316,7 +4318,7 @@
     <row r="10" spans="1:63">
       <c r="A10" s="16"/>
       <c r="B10" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -4448,7 +4450,7 @@
     <row r="12" spans="1:63">
       <c r="A12" s="16"/>
       <c r="B12" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -4515,7 +4517,7 @@
     <row r="13" spans="1:63">
       <c r="A13" s="16"/>
       <c r="B13" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4712,7 +4714,7 @@
     <row r="16" spans="1:63">
       <c r="A16" s="16"/>
       <c r="B16" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4779,7 +4781,7 @@
     <row r="17" spans="1:63">
       <c r="A17" s="16"/>
       <c r="B17" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4846,7 +4848,7 @@
     <row r="18" spans="1:63">
       <c r="A18" s="16"/>
       <c r="B18" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4913,7 +4915,7 @@
     <row r="19" spans="1:63">
       <c r="A19" s="16"/>
       <c r="B19" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4980,7 +4982,7 @@
     <row r="20" spans="1:63">
       <c r="A20" s="16"/>
       <c r="B20" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5177,7 +5179,7 @@
     <row r="23" spans="1:63">
       <c r="A23" s="16"/>
       <c r="B23" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -5244,7 +5246,7 @@
     <row r="24" spans="1:63">
       <c r="A24" s="16"/>
       <c r="B24" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5311,7 +5313,7 @@
     <row r="25" spans="1:63">
       <c r="A25" s="16"/>
       <c r="B25" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5378,7 +5380,7 @@
     <row r="26" spans="1:63">
       <c r="A26" s="16"/>
       <c r="B26" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5445,7 +5447,7 @@
     <row r="27" spans="1:63">
       <c r="A27" s="16"/>
       <c r="B27" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5512,7 +5514,7 @@
     <row r="28" spans="1:63">
       <c r="A28" s="16"/>
       <c r="B28" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5774,7 +5776,7 @@
     <row r="32" spans="1:63">
       <c r="A32" s="16"/>
       <c r="B32" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5841,7 +5843,7 @@
     <row r="33" spans="1:63">
       <c r="A33" s="16"/>
       <c r="B33" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -6102,16 +6104,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J4:AE4"/>
+    <mergeCell ref="J3:AE3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:AE6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="J7:AE7"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="J5:AE5"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J4:AE4"/>
-    <mergeCell ref="J3:AE3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6126,7 +6128,9 @@
   </sheetPr>
   <dimension ref="A1:BK13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
@@ -6269,40 +6273,40 @@
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="16"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58" t="s">
-        <v>29</v>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49" t="s">
+        <v>81</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="57"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="51"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -6338,40 +6342,40 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="16"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="57"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="51"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -6407,40 +6411,40 @@
     </row>
     <row r="5" spans="1:63">
       <c r="A5" s="20"/>
-      <c r="B5" s="58" t="s">
-        <v>15</v>
+      <c r="B5" s="49" t="s">
+        <v>14</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="s">
-        <v>15</v>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49" t="s">
+        <v>14</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="51"/>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
@@ -6607,7 +6611,7 @@
     <row r="8" spans="1:63">
       <c r="A8" s="16"/>
       <c r="B8" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -6674,7 +6678,7 @@
     <row r="9" spans="1:63">
       <c r="A9" s="16"/>
       <c r="B9" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -7020,7 +7024,7 @@
   </sheetPr>
   <dimension ref="A1:BK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
@@ -7163,40 +7167,40 @@
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="16"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58" t="s">
-        <v>32</v>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49" t="s">
+        <v>30</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="57"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="51"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -7232,40 +7236,40 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="16"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="57"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="51"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -7301,40 +7305,40 @@
     </row>
     <row r="5" spans="1:63">
       <c r="A5" s="16"/>
-      <c r="B5" s="58" t="s">
-        <v>33</v>
+      <c r="B5" s="49" t="s">
+        <v>31</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="s">
-        <v>34</v>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49" t="s">
+        <v>32</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="51"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -7370,40 +7374,40 @@
     </row>
     <row r="6" spans="1:63">
       <c r="A6" s="16"/>
-      <c r="B6" s="58" t="s">
-        <v>35</v>
+      <c r="B6" s="49" t="s">
+        <v>33</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="s">
-        <v>36</v>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="49" t="s">
+        <v>34</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="57"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="51"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -7439,40 +7443,40 @@
     </row>
     <row r="7" spans="1:63">
       <c r="A7" s="16"/>
-      <c r="B7" s="58" t="s">
-        <v>37</v>
+      <c r="B7" s="49" t="s">
+        <v>35</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="s">
-        <v>38</v>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="49" t="s">
+        <v>36</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="57"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="51"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -7508,40 +7512,40 @@
     </row>
     <row r="8" spans="1:63">
       <c r="A8" s="16"/>
-      <c r="B8" s="58" t="s">
-        <v>39</v>
+      <c r="B8" s="49" t="s">
+        <v>37</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58" t="s">
-        <v>40</v>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="49" t="s">
+        <v>38</v>
       </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="57"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="51"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -7577,40 +7581,40 @@
     </row>
     <row r="9" spans="1:63">
       <c r="A9" s="16"/>
-      <c r="B9" s="58" t="s">
-        <v>41</v>
+      <c r="B9" s="49" t="s">
+        <v>39</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58" t="s">
-        <v>42</v>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="49" t="s">
+        <v>40</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="51"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -7646,40 +7650,40 @@
     </row>
     <row r="10" spans="1:63">
       <c r="A10" s="16"/>
-      <c r="B10" s="58" t="s">
-        <v>43</v>
+      <c r="B10" s="49" t="s">
+        <v>41</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58" t="s">
-        <v>44</v>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="49" t="s">
+        <v>42</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="51"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="16"/>
@@ -7715,40 +7719,40 @@
     </row>
     <row r="11" spans="1:63">
       <c r="A11" s="16"/>
-      <c r="B11" s="58" t="s">
-        <v>45</v>
+      <c r="B11" s="49" t="s">
+        <v>43</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58" t="s">
-        <v>46</v>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="49" t="s">
+        <v>44</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="51"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
@@ -7915,7 +7919,7 @@
     <row r="14" spans="1:63">
       <c r="A14" s="16"/>
       <c r="B14" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -7982,7 +7986,7 @@
     <row r="15" spans="1:63">
       <c r="A15" s="16"/>
       <c r="B15" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -8049,7 +8053,7 @@
     <row r="16" spans="1:63">
       <c r="A16" s="16"/>
       <c r="B16" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -8116,7 +8120,7 @@
     <row r="17" spans="1:63">
       <c r="A17" s="16"/>
       <c r="B17" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -8183,7 +8187,7 @@
     <row r="18" spans="1:63">
       <c r="A18" s="16"/>
       <c r="B18" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -8250,7 +8254,7 @@
     <row r="19" spans="1:63">
       <c r="A19" s="16"/>
       <c r="B19" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -8317,7 +8321,7 @@
     <row r="20" spans="1:63">
       <c r="A20" s="16"/>
       <c r="B20" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -8384,7 +8388,7 @@
     <row r="21" spans="1:63">
       <c r="A21" s="16"/>
       <c r="B21" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -8451,7 +8455,7 @@
     <row r="22" spans="1:63">
       <c r="A22" s="16"/>
       <c r="B22" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -8518,7 +8522,7 @@
     <row r="23" spans="1:63">
       <c r="A23" s="16"/>
       <c r="B23" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -8585,7 +8589,7 @@
     <row r="24" spans="1:63">
       <c r="A24" s="16"/>
       <c r="B24" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -8652,7 +8656,7 @@
     <row r="25" spans="1:63">
       <c r="A25" s="16"/>
       <c r="B25" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -8719,7 +8723,7 @@
     <row r="26" spans="1:63">
       <c r="A26" s="16"/>
       <c r="B26" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -8786,7 +8790,7 @@
     <row r="27" spans="1:63">
       <c r="A27" s="16"/>
       <c r="B27" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -8853,7 +8857,7 @@
     <row r="28" spans="1:63">
       <c r="A28" s="16"/>
       <c r="B28" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -8920,7 +8924,7 @@
     <row r="29" spans="1:63">
       <c r="A29" s="16"/>
       <c r="B29" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -8987,7 +8991,7 @@
     <row r="30" spans="1:63">
       <c r="A30" s="16"/>
       <c r="B30" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -9054,7 +9058,7 @@
     <row r="31" spans="1:63">
       <c r="A31" s="16"/>
       <c r="B31" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -9121,7 +9125,7 @@
     <row r="32" spans="1:63">
       <c r="A32" s="16"/>
       <c r="B32" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -9188,7 +9192,7 @@
     <row r="33" spans="1:63">
       <c r="A33" s="16"/>
       <c r="B33" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -9255,7 +9259,7 @@
     <row r="34" spans="1:63">
       <c r="A34" s="16"/>
       <c r="B34" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -9322,7 +9326,7 @@
     <row r="35" spans="1:63">
       <c r="A35" s="16"/>
       <c r="B35" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -9389,7 +9393,7 @@
     <row r="36" spans="1:63">
       <c r="A36" s="16"/>
       <c r="B36" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -9456,7 +9460,7 @@
     <row r="37" spans="1:63">
       <c r="A37" s="16"/>
       <c r="B37" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -9523,7 +9527,7 @@
     <row r="38" spans="1:63">
       <c r="A38" s="16"/>
       <c r="B38" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -9590,7 +9594,7 @@
     <row r="39" spans="1:63">
       <c r="A39" s="16"/>
       <c r="B39" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -9657,7 +9661,7 @@
     <row r="40" spans="1:63">
       <c r="A40" s="16"/>
       <c r="B40" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -9724,7 +9728,7 @@
     <row r="41" spans="1:63">
       <c r="A41" s="16"/>
       <c r="B41" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -9791,7 +9795,7 @@
     <row r="42" spans="1:63">
       <c r="A42" s="16"/>
       <c r="B42" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -9858,7 +9862,7 @@
     <row r="43" spans="1:63">
       <c r="A43" s="16"/>
       <c r="B43" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -9925,7 +9929,7 @@
     <row r="44" spans="1:63">
       <c r="A44" s="16"/>
       <c r="B44" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -9992,7 +9996,7 @@
     <row r="45" spans="1:63">
       <c r="A45" s="16"/>
       <c r="B45" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -10059,7 +10063,7 @@
     <row r="46" spans="1:63">
       <c r="A46" s="16"/>
       <c r="B46" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -10126,7 +10130,7 @@
     <row r="47" spans="1:63">
       <c r="A47" s="16"/>
       <c r="B47" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -10193,7 +10197,7 @@
     <row r="48" spans="1:63">
       <c r="A48" s="16"/>
       <c r="B48" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -10389,16 +10393,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J3:AE3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J5:AE5"/>
-    <mergeCell ref="J6:AE6"/>
-    <mergeCell ref="J7:AE7"/>
-    <mergeCell ref="J4:AE4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
@@ -10407,6 +10401,16 @@
     <mergeCell ref="J9:AE9"/>
     <mergeCell ref="J10:AE10"/>
     <mergeCell ref="J11:AE11"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J5:AE5"/>
+    <mergeCell ref="J6:AE6"/>
+    <mergeCell ref="J7:AE7"/>
+    <mergeCell ref="J4:AE4"/>
+    <mergeCell ref="J3:AE3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10564,38 +10568,38 @@
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="16"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="57"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="51"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -10631,40 +10635,40 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="16"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="57"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="51"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -10700,36 +10704,36 @@
     </row>
     <row r="5" spans="1:63">
       <c r="A5" s="16"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="51"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -10765,36 +10769,36 @@
     </row>
     <row r="6" spans="1:63">
       <c r="A6" s="16"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="57"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="51"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -10830,36 +10834,36 @@
     </row>
     <row r="7" spans="1:63">
       <c r="A7" s="16"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="57"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="51"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -10895,36 +10899,36 @@
     </row>
     <row r="8" spans="1:63">
       <c r="A8" s="16"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="57"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="51"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -10960,36 +10964,36 @@
     </row>
     <row r="9" spans="1:63">
       <c r="A9" s="16"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="51"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -11025,36 +11029,36 @@
     </row>
     <row r="10" spans="1:63">
       <c r="A10" s="16"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="51"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="16"/>
@@ -11090,36 +11094,36 @@
     </row>
     <row r="11" spans="1:63">
       <c r="A11" s="16"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="51"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
@@ -13690,12 +13694,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:AE3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:AE4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:AE5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="J6:AE6"/>
     <mergeCell ref="B7:I7"/>
@@ -13708,6 +13706,12 @@
     <mergeCell ref="J9:AE9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="J10:AE10"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:AE3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:AE4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13734,7 +13738,7 @@
   <sheetData>
     <row r="1" spans="1:63" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13866,38 +13870,38 @@
     </row>
     <row r="3" spans="1:63" ht="14.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="55"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -13933,38 +13937,38 @@
     </row>
     <row r="4" spans="1:63" ht="14.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="61"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="55"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -14000,38 +14004,38 @@
     </row>
     <row r="5" spans="1:63" ht="14.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="61"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="55"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -14067,38 +14071,38 @@
     </row>
     <row r="6" spans="1:63" ht="14.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="61"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="55"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -14199,40 +14203,40 @@
     </row>
     <row r="8" spans="1:63" ht="14.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62" t="s">
-        <v>71</v>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="53" t="s">
+        <v>69</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="61"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="55"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -14268,40 +14272,40 @@
     </row>
     <row r="9" spans="1:63" ht="14.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="61"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -14337,40 +14341,40 @@
     </row>
     <row r="10" spans="1:63" ht="14.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="62" t="s">
-        <v>15</v>
+      <c r="B10" s="53" t="s">
+        <v>14</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62" t="s">
-        <v>15</v>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="53" t="s">
+        <v>14</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="61"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="55"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -16486,6 +16490,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J9:AE9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:AE10"/>
+    <mergeCell ref="J8:AE8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="Q6:AE6"/>
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="B3:P3"/>
@@ -16494,12 +16504,6 @@
     <mergeCell ref="Q4:AE4"/>
     <mergeCell ref="B5:P5"/>
     <mergeCell ref="Q5:AE5"/>
-    <mergeCell ref="J9:AE9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:AE10"/>
-    <mergeCell ref="J8:AE8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
